--- a/CLint_Raw data.xlsx
+++ b/CLint_Raw data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pchen\Documents\R\In silico\IVIVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2221EE4-C903-4726-800C-0E6871434FE8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B20394-4DB2-4DAC-B10F-8CE31B046B8C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={2C0B1D9B-1921-401E-9A6D-62FECD0975CB}</author>
-    <author>tc={95098CB1-C52F-4342-B5BF-C23F0FF0B687}</author>
   </authors>
   <commentList>
     <comment ref="C1" authorId="0" shapeId="0" xr:uid="{2C0B1D9B-1921-401E-9A6D-62FECD0975CB}">
@@ -44,20 +43,12 @@
     Use full name of the species e.g. "Rat"</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{95098CB1-C52F-4342-B5BF-C23F0FF0B687}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Use "Hepatocytes" or "Liver Microsomes"</t>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="95">
   <si>
     <t>Basic</t>
   </si>
@@ -278,12 +269,6 @@
     <t>Rbp</t>
   </si>
   <si>
-    <t>Matrix</t>
-  </si>
-  <si>
-    <t>Hepatocytes</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
@@ -303,9 +288,6 @@
   </si>
   <si>
     <t>µM</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Parameters</t>
@@ -361,9 +343,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>CLint</t>
-  </si>
-  <si>
     <t>CLobs</t>
   </si>
   <si>
@@ -497,6 +476,72 @@
   </si>
   <si>
     <t>c_LogS</t>
+  </si>
+  <si>
+    <t>CLint_LM</t>
+  </si>
+  <si>
+    <t>CLint_hep</t>
+  </si>
+  <si>
+    <t>Clint,u as low CL (LM)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>µ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L/min/mg of protein</t>
+    </r>
+  </si>
+  <si>
+    <t>Clint,u as high CL (LM)</t>
+  </si>
+  <si>
+    <t>Clint,u as low CL (hep)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>µ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L/min/million cells</t>
+    </r>
+  </si>
+  <si>
+    <t>Clint,u as high CL (hep)</t>
+  </si>
+  <si>
+    <t>ER as low CL</t>
+  </si>
+  <si>
+    <t>ER as high CL</t>
   </si>
 </sst>
 </file>
@@ -729,7 +774,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -861,6 +906,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1232,9 +1278,6 @@
   <threadedComment ref="C1" dT="2020-05-13T21:45:17.72" personId="{4AA535B8-B98E-41DF-BB5B-59C4C10D1E4E}" id="{2C0B1D9B-1921-401E-9A6D-62FECD0975CB}">
     <text>Use full name of the species e.g. "Rat"</text>
   </threadedComment>
-  <threadedComment ref="D1" dT="2020-05-13T21:44:02.70" personId="{4AA535B8-B98E-41DF-BB5B-59C4C10D1E4E}" id="{95098CB1-C52F-4342-B5BF-C23F0FF0B687}">
-    <text>Use "Hepatocytes" or "Liver Microsomes"</text>
-  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -1244,7 +1287,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
+      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1279,7 +1322,7 @@
   <sheetData>
     <row r="1" spans="1:32" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>2</v>
@@ -1288,105 +1331,105 @@
         <v>9</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I1" s="42" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L1" s="20" t="s">
         <v>22</v>
       </c>
       <c r="M1" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="S1" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="T1" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="U1" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="V1" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="W1" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="X1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y1" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB1" s="23" t="s">
         <v>45</v>
-      </c>
-      <c r="N1" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="O1" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q1" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="S1" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="T1" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="U1" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="V1" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="W1" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="X1" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y1" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z1" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA1" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB1" s="23" t="s">
-        <v>49</v>
       </c>
       <c r="AC1" s="19" t="s">
         <v>3</v>
       </c>
       <c r="AD1" s="19" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AE1" s="19" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AF1" s="24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="41" t="s">
-        <v>24</v>
+      <c r="D2" s="41">
+        <v>0.14000000000000001</v>
       </c>
       <c r="E2" s="41">
         <v>0.45</v>
@@ -1403,6 +1446,9 @@
       <c r="I2" s="43">
         <v>0.66287898855751204</v>
       </c>
+      <c r="J2" s="29">
+        <v>0.5</v>
+      </c>
       <c r="K2" s="29">
         <v>0.84</v>
       </c>
@@ -1428,7 +1474,7 @@
         <v>0.49</v>
       </c>
       <c r="W2" s="46" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Y2" s="14">
         <v>0.49</v>
@@ -1436,17 +1482,14 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C3" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="41" t="s">
-        <v>24</v>
-      </c>
       <c r="E3" s="41">
         <v>46</v>
       </c>
@@ -1462,6 +1505,9 @@
       <c r="I3" s="43">
         <v>5.9351812183921597E-2</v>
       </c>
+      <c r="J3" s="29">
+        <v>0.5</v>
+      </c>
       <c r="K3" s="29">
         <v>0.13</v>
       </c>
@@ -1495,16 +1541,16 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C4" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="41" t="s">
-        <v>24</v>
+      <c r="D4" s="41">
+        <v>18</v>
       </c>
       <c r="E4" s="41">
         <v>6.3</v>
@@ -1521,6 +1567,9 @@
       <c r="I4" s="43">
         <v>8.7999999999999995E-2</v>
       </c>
+      <c r="J4" s="29">
+        <v>0.5</v>
+      </c>
       <c r="K4" s="29">
         <v>0.38</v>
       </c>
@@ -1546,7 +1595,7 @@
         <v>7.35</v>
       </c>
       <c r="W4" s="46" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="X4" s="14">
         <v>15.9</v>
@@ -1557,17 +1606,14 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C5" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="41" t="s">
-        <v>24</v>
-      </c>
       <c r="E5" s="41">
         <v>46</v>
       </c>
@@ -1583,6 +1629,9 @@
       <c r="I5" s="43">
         <v>0.16441445501507099</v>
       </c>
+      <c r="J5" s="29">
+        <v>0.5</v>
+      </c>
       <c r="K5" s="29">
         <v>0.43</v>
       </c>
@@ -1605,7 +1654,7 @@
         <v>6.82</v>
       </c>
       <c r="W5" s="46" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="X5" s="14">
         <v>9.39</v>
@@ -1616,17 +1665,14 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C6" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="41" t="s">
-        <v>24</v>
-      </c>
       <c r="E6" s="41">
         <v>44</v>
       </c>
@@ -1642,6 +1688,9 @@
       <c r="I6" s="43">
         <v>0.32297366551446999</v>
       </c>
+      <c r="J6" s="29">
+        <v>0.5</v>
+      </c>
       <c r="K6" s="29">
         <v>0.4</v>
       </c>
@@ -1672,16 +1721,16 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C7" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="41" t="s">
-        <v>24</v>
+      <c r="D7" s="41">
+        <v>3</v>
       </c>
       <c r="E7" s="41">
         <v>2.5</v>
@@ -1698,6 +1747,9 @@
       <c r="I7" s="43">
         <v>2.1999999999999999E-2</v>
       </c>
+      <c r="J7" s="29">
+        <v>0.5</v>
+      </c>
       <c r="K7" s="29">
         <v>0.51</v>
       </c>
@@ -1723,7 +1775,7 @@
         <v>2.92</v>
       </c>
       <c r="W7" s="46" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Y7" s="14">
         <v>2.92</v>
@@ -1731,16 +1783,16 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C8" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="41" t="s">
-        <v>24</v>
+      <c r="D8" s="41">
+        <v>228</v>
       </c>
       <c r="E8" s="41">
         <v>8.6</v>
@@ -1757,6 +1809,9 @@
       <c r="I8" s="43">
         <v>5.6655041645866301E-2</v>
       </c>
+      <c r="J8" s="29">
+        <v>0.5</v>
+      </c>
       <c r="K8" s="29">
         <v>5.3999999999999999E-2</v>
       </c>
@@ -1793,17 +1848,14 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C9" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="41" t="s">
-        <v>24</v>
-      </c>
       <c r="E9" s="41">
         <v>15</v>
       </c>
@@ -1819,6 +1871,9 @@
       <c r="I9" s="43">
         <v>0.25538964941078901</v>
       </c>
+      <c r="J9" s="29">
+        <v>0.5</v>
+      </c>
       <c r="K9" s="29">
         <v>0.47</v>
       </c>
@@ -1855,16 +1910,16 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C10" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="41" t="s">
-        <v>24</v>
+      <c r="D10" s="41">
+        <v>14</v>
       </c>
       <c r="E10" s="41">
         <v>18</v>
@@ -1881,6 +1936,9 @@
       <c r="I10" s="43">
         <v>0.200778895678901</v>
       </c>
+      <c r="J10" s="29">
+        <v>0.5</v>
+      </c>
       <c r="K10" s="29">
         <v>0.36</v>
       </c>
@@ -1914,16 +1972,16 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C11" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="41" t="s">
-        <v>24</v>
+      <c r="D11" s="41">
+        <v>14</v>
       </c>
       <c r="E11" s="41">
         <v>13</v>
@@ -1940,6 +1998,9 @@
       <c r="I11" s="43">
         <v>0.66133277845801997</v>
       </c>
+      <c r="J11" s="29">
+        <v>0.5</v>
+      </c>
       <c r="K11" s="29">
         <v>0.93</v>
       </c>
@@ -1976,16 +2037,16 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="41" t="s">
-        <v>24</v>
+      <c r="D12" s="41">
+        <v>369</v>
       </c>
       <c r="E12" s="41">
         <v>18</v>
@@ -2002,6 +2063,9 @@
       <c r="I12" s="43">
         <v>6.5502403935311301E-2</v>
       </c>
+      <c r="J12" s="29">
+        <v>0.5</v>
+      </c>
       <c r="K12" s="29">
         <v>0.13</v>
       </c>
@@ -2024,7 +2088,7 @@
         <v>6.57</v>
       </c>
       <c r="W12" s="46" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Y12" s="14">
         <v>6.57</v>
@@ -2032,17 +2096,14 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C13" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="41" t="s">
-        <v>24</v>
-      </c>
       <c r="E13" s="41">
         <v>57</v>
       </c>
@@ -2058,6 +2119,9 @@
       <c r="I13" s="43">
         <v>0.55009800678021803</v>
       </c>
+      <c r="J13" s="29">
+        <v>0.5</v>
+      </c>
       <c r="K13" s="29">
         <v>0.92</v>
       </c>
@@ -2091,17 +2155,14 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="39" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C14" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="41" t="s">
-        <v>24</v>
-      </c>
       <c r="E14" s="41">
         <v>2.6</v>
       </c>
@@ -2117,6 +2178,9 @@
       <c r="I14" s="43">
         <v>0.20237168627691901</v>
       </c>
+      <c r="J14" s="29">
+        <v>0.5</v>
+      </c>
       <c r="K14" s="29">
         <v>0.33</v>
       </c>
@@ -2139,7 +2203,7 @@
         <v>-1.5</v>
       </c>
       <c r="W14" s="46" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="X14" s="14">
         <v>10.61</v>
@@ -2150,16 +2214,16 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C15" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="41" t="s">
-        <v>24</v>
+      <c r="D15" s="41">
+        <v>41</v>
       </c>
       <c r="E15" s="41">
         <v>28</v>
@@ -2176,6 +2240,9 @@
       <c r="I15" s="43">
         <v>0.40848677657294002</v>
       </c>
+      <c r="J15" s="29">
+        <v>0.5</v>
+      </c>
       <c r="K15" s="29">
         <v>0.66</v>
       </c>
@@ -2212,16 +2279,16 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="39" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="41" t="s">
-        <v>24</v>
+      <c r="D16" s="41">
+        <v>10.6</v>
       </c>
       <c r="E16" s="41">
         <v>4.5999999999999996</v>
@@ -2238,6 +2305,9 @@
       <c r="I16" s="43">
         <v>0.23768425911733301</v>
       </c>
+      <c r="J16" s="29">
+        <v>0.5</v>
+      </c>
       <c r="K16" s="29">
         <v>0.6</v>
       </c>
@@ -2274,17 +2344,14 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C17" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="41" t="s">
-        <v>24</v>
-      </c>
       <c r="E17" s="41">
         <v>4.2</v>
       </c>
@@ -2300,6 +2367,9 @@
       <c r="I17" s="43">
         <v>0.69971392871165305</v>
       </c>
+      <c r="J17" s="29">
+        <v>0.5</v>
+      </c>
       <c r="K17" s="29">
         <v>0.9</v>
       </c>
@@ -2336,17 +2406,14 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="C18" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="41" t="s">
-        <v>24</v>
-      </c>
       <c r="E18" s="41">
         <v>1.3</v>
       </c>
@@ -2362,6 +2429,9 @@
       <c r="I18" s="43">
         <v>0.186</v>
       </c>
+      <c r="J18" s="29">
+        <v>0.5</v>
+      </c>
       <c r="K18" s="29">
         <v>0.74</v>
       </c>
@@ -2395,17 +2465,14 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C19" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="41" t="s">
-        <v>24</v>
-      </c>
       <c r="E19" s="41">
         <v>8</v>
       </c>
@@ -2421,6 +2488,9 @@
       <c r="I19" s="43">
         <v>0.22629357785196</v>
       </c>
+      <c r="J19" s="29">
+        <v>0.5</v>
+      </c>
       <c r="K19" s="29">
         <v>0.56000000000000005</v>
       </c>
@@ -2446,7 +2516,7 @@
         <v>7.09</v>
       </c>
       <c r="W19" s="46" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Y19" s="14">
         <v>7.09</v>
@@ -2454,17 +2524,14 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C20" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="41" t="s">
-        <v>24</v>
-      </c>
       <c r="E20" s="41">
         <v>1.7</v>
       </c>
@@ -2480,6 +2547,9 @@
       <c r="I20" s="43">
         <v>0.11600000000000001</v>
       </c>
+      <c r="J20" s="29">
+        <v>0.5</v>
+      </c>
       <c r="K20" s="29">
         <v>0.28000000000000003</v>
       </c>
@@ -2502,7 +2572,7 @@
         <v>4.32</v>
       </c>
       <c r="W20" s="46" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="X20" s="14">
         <v>18.079999999999998</v>
@@ -2513,16 +2583,16 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="39" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C21" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="41" t="s">
-        <v>24</v>
+      <c r="D21" s="41">
+        <v>84.4</v>
       </c>
       <c r="E21" s="41">
         <v>71</v>
@@ -2538,6 +2608,9 @@
       </c>
       <c r="I21" s="43">
         <v>0.24374072308246</v>
+      </c>
+      <c r="J21" s="29">
+        <v>0.5</v>
       </c>
       <c r="K21" s="29">
         <v>0.66</v>
@@ -2711,10 +2784,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEF4DE9-FEE4-454E-BF78-CD708AD7997C}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2727,10 +2800,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>10</v>
@@ -2738,77 +2811,69 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" s="37">
         <v>0.25</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="37">
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="8">
         <v>0.5</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B5" s="37">
         <v>5</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B6" s="37">
         <v>3</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B7" s="37">
         <v>2</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
         <v>11</v>
       </c>
@@ -2817,9 +2882,7 @@
       <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
         <v>13</v>
       </c>
@@ -2829,9 +2892,7 @@
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
         <v>17</v>
       </c>
@@ -2840,34 +2901,90 @@
       <c r="A11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="B11" s="7"/>
       <c r="C11" s="36" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B12" s="37">
         <v>7.4</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="B13" s="37">
-        <v>7</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>32</v>
-      </c>
+        <v>7.1</v>
+      </c>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="37">
+        <v>200</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="37">
+        <v>1000</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="37">
+        <v>60</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="37">
+        <v>400</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="37">
+        <v>0.3</v>
+      </c>
+      <c r="C18" s="47"/>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="37">
+        <v>0.7</v>
+      </c>
+      <c r="C19" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
